--- a/simom2.xlsx
+++ b/simom2.xlsx
@@ -51,471 +51,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:K55"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.16989742444729392</v>
+        <v>0.01356340666349224</v>
       </c>
       <c r="B1">
-        <v>0.0017880750321112339</v>
+        <v>4.1960935477966383e-005</v>
       </c>
       <c r="C1">
-        <v>-0.00012275135169329538</v>
+        <v>2.088760237005406e-005</v>
       </c>
       <c r="D1">
-        <v>-5.9198509350245261e-005</v>
+        <v>2.3509931134958754e-007</v>
       </c>
       <c r="E1">
-        <v>0.012849809795324456</v>
+        <v>-6.5654914877172173e-007</v>
       </c>
       <c r="F1">
-        <v>1.3586332116980073e-005</v>
+        <v>-2.4635590763506918e-005</v>
       </c>
       <c r="G1">
-        <v>0.00055682919095964567</v>
+        <v>4.972291654309356e-005</v>
       </c>
       <c r="H1">
-        <v>-0.00064537255215754686</v>
+        <v>-0.00010243591249599638</v>
       </c>
       <c r="I1">
-        <v>-0.012961907317564265</v>
+        <v>-0.0001692810616743886</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.97004863882892711</v>
+        <v>-0.96289389027008054</v>
       </c>
       <c r="B2">
-        <v>-0.00012275135169329538</v>
+        <v>2.088760237005406e-005</v>
       </c>
       <c r="C2">
-        <v>0.00025929898884047726</v>
+        <v>0.00049289056415217046</v>
       </c>
       <c r="D2">
-        <v>4.4545035959957927e-005</v>
+        <v>0.00013889941393869295</v>
       </c>
       <c r="E2">
-        <v>-0.0010592141411817039</v>
+        <v>6.9396606793642132e-005</v>
       </c>
       <c r="F2">
-        <v>-9.937473664830284e-006</v>
+        <v>3.8682734998270502e-006</v>
       </c>
       <c r="G2">
-        <v>3.5747351690095688e-005</v>
+        <v>0.00014382619392016891</v>
       </c>
       <c r="H2">
-        <v>0.00043482541193533541</v>
+        <v>0.00082498544610418666</v>
       </c>
       <c r="I2">
-        <v>0.00080130073676744937</v>
+        <v>-0.00059245122889049827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.10871189179005181</v>
+        <v>0.0089158041482682044</v>
       </c>
       <c r="B3">
-        <v>-5.9198509350245261e-005</v>
+        <v>2.3509931134958754e-007</v>
       </c>
       <c r="C3">
-        <v>4.4545035959957927e-005</v>
+        <v>0.00013889941393869295</v>
       </c>
       <c r="D3">
-        <v>6.38325515451331e-005</v>
+        <v>6.8480985185323426e-005</v>
       </c>
       <c r="E3">
-        <v>-0.00040838779466503491</v>
+        <v>1.5994486752560489e-005</v>
       </c>
       <c r="F3">
-        <v>-2.2089258486197288e-005</v>
+        <v>3.9878189351236837e-006</v>
       </c>
       <c r="G3">
-        <v>-0.0001076380980946083</v>
+        <v>7.2350555833085135e-005</v>
       </c>
       <c r="H3">
-        <v>0.00016689779548661028</v>
+        <v>0.0002759679656110274</v>
       </c>
       <c r="I3">
-        <v>0.00038554570625694133</v>
+        <v>-0.00021307247355538308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.1809783012294974</v>
+        <v>-0.10694441748651298</v>
       </c>
       <c r="B4">
-        <v>0.012849809795324456</v>
+        <v>-6.5654914877172173e-007</v>
       </c>
       <c r="C4">
-        <v>-0.0010592141411817039</v>
+        <v>6.9396606793642132e-005</v>
       </c>
       <c r="D4">
-        <v>-0.00040838779466503491</v>
+        <v>1.5994486752560489e-005</v>
       </c>
       <c r="E4">
-        <v>0.093601008713280573</v>
+        <v>7.0339078537103868e-005</v>
       </c>
       <c r="F4">
-        <v>0.00018053190020098192</v>
+        <v>-2.11785987200192e-005</v>
       </c>
       <c r="G4">
-        <v>0.0040029648530858246</v>
+        <v>-5.6000846783458632e-005</v>
       </c>
       <c r="H4">
-        <v>-0.0041970881970700641</v>
+        <v>0.00018392748657497144</v>
       </c>
       <c r="I4">
-        <v>-0.093898868642848812</v>
+        <v>-0.00010403385877232216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.030456298808427186</v>
+        <v>-0.039013510318961789</v>
       </c>
       <c r="B5">
-        <v>1.3586332116980073e-005</v>
+        <v>-2.4635590763506918e-005</v>
       </c>
       <c r="C5">
-        <v>-9.937473664830284e-006</v>
+        <v>3.8682734998270502e-006</v>
       </c>
       <c r="D5">
-        <v>-2.2089258486197288e-005</v>
+        <v>3.9878189351236837e-006</v>
       </c>
       <c r="E5">
-        <v>0.00018053190020098192</v>
+        <v>-2.11785987200192e-005</v>
       </c>
       <c r="F5">
-        <v>4.7051481184152725e-005</v>
+        <v>6.1269312339281594e-005</v>
       </c>
       <c r="G5">
-        <v>-2.4657609766170724e-005</v>
+        <v>-6.9194121139362269e-005</v>
       </c>
       <c r="H5">
-        <v>-1.8666476437894838e-006</v>
+        <v>6.2455134572257659e-005</v>
       </c>
       <c r="I5">
-        <v>-0.00013939156173759757</v>
+        <v>9.8256231996988449e-005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.068955904505022425</v>
+        <v>-0.057553417128315652</v>
       </c>
       <c r="B6">
-        <v>0.00055682919095964567</v>
+        <v>4.972291654309356e-005</v>
       </c>
       <c r="C6">
-        <v>3.5747351690095688e-005</v>
+        <v>0.00014382619392016891</v>
       </c>
       <c r="D6">
-        <v>-0.0001076380980946083</v>
+        <v>7.2350555833085135e-005</v>
       </c>
       <c r="E6">
-        <v>0.0040029648530858246</v>
+        <v>-5.6000846783458632e-005</v>
       </c>
       <c r="F6">
-        <v>-2.4657609766170724e-005</v>
+        <v>-6.9194121139362269e-005</v>
       </c>
       <c r="G6">
-        <v>0.0027349446206561927</v>
+        <v>0.003592414500724389</v>
       </c>
       <c r="H6">
-        <v>-0.00017220802570128041</v>
+        <v>-0.00032341198202098039</v>
       </c>
       <c r="I6">
-        <v>-0.0060562599313717172</v>
+        <v>-0.0031705960756197651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.16140489633414365</v>
+        <v>0.16086638096774897</v>
       </c>
       <c r="B7">
-        <v>-0.00064537255215754686</v>
+        <v>-0.00010243591249599638</v>
       </c>
       <c r="C7">
-        <v>0.00043482541193533541</v>
+        <v>0.00082498544610418666</v>
       </c>
       <c r="D7">
-        <v>0.00016689779548661028</v>
+        <v>0.0002759679656110274</v>
       </c>
       <c r="E7">
-        <v>-0.0041970881970700641</v>
+        <v>0.00018392748657497144</v>
       </c>
       <c r="F7">
-        <v>-1.8666476437894838e-006</v>
+        <v>6.2455134572257659e-005</v>
       </c>
       <c r="G7">
-        <v>-0.00017220802570128041</v>
+        <v>-0.00032341198202098039</v>
       </c>
       <c r="H7">
-        <v>0.0048697406364781263</v>
+        <v>0.0054380442754406334</v>
       </c>
       <c r="I7">
-        <v>0.0032860112273902361</v>
+        <v>-0.0010331688338023597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>6.0177545203241269</v>
+        <v>7.1368091924770605</v>
       </c>
       <c r="B8">
-        <v>-0.012961907317564265</v>
+        <v>-0.0001692810616743886</v>
       </c>
       <c r="C8">
-        <v>0.00080130073676744937</v>
+        <v>-0.00059245122889049827</v>
       </c>
       <c r="D8">
-        <v>0.00038554570625694133</v>
+        <v>-0.00021307247355538308</v>
       </c>
       <c r="E8">
-        <v>-0.093898868642848812</v>
+        <v>-0.00010403385877232216</v>
       </c>
       <c r="F8">
-        <v>-0.00013939156173759757</v>
+        <v>9.8256231996988449e-005</v>
       </c>
       <c r="G8">
-        <v>-0.0060562599313717172</v>
+        <v>-0.0031705960756197651</v>
       </c>
       <c r="H8">
-        <v>0.0032860112273902361</v>
+        <v>-0.0010331688338023597</v>
       </c>
       <c r="I8">
-        <v>0.096456349580166675</v>
+        <v>0.0040022059754357894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.045797066088227194</v>
+        <v>-0.00072075139196818507</v>
       </c>
       <c r="B15">
-        <v>0.00029597600047962029</v>
+        <v>2.8518697873958275e-005</v>
       </c>
       <c r="C15">
-        <v>-3.2255208457506236e-005</v>
+        <v>2.7859731756565981e-005</v>
       </c>
       <c r="D15">
-        <v>0.00043071789736998925</v>
+        <v>5.9849409722593387e-006</v>
       </c>
       <c r="E15">
-        <v>-2.6023261224810017e-005</v>
+        <v>7.3136355949670907e-007</v>
       </c>
       <c r="F15">
-        <v>3.387795745256086e-005</v>
+        <v>-1.1641730851456868e-005</v>
       </c>
       <c r="G15">
-        <v>-0.00059051127862410388</v>
+        <v>-4.9473320118803182e-005</v>
       </c>
       <c r="H15">
-        <v>7.8805896475354456e-005</v>
+        <v>5.5087684978091164e-006</v>
       </c>
       <c r="I15">
-        <v>-0.0002031336521589943</v>
+        <v>-7.2169992113657334e-005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.0082086795914541044</v>
+        <v>-0.03922431545249605</v>
       </c>
       <c r="B16">
-        <v>-3.2255208457506236e-005</v>
+        <v>2.7859731756565981e-005</v>
       </c>
       <c r="C16">
-        <v>1.2550226405501157e-005</v>
+        <v>0.00063735751947476254</v>
       </c>
       <c r="D16">
-        <v>-0.00015105520956384789</v>
+        <v>0.00020226257836044136</v>
       </c>
       <c r="E16">
-        <v>-2.3169462979148671e-006</v>
+        <v>-3.4023172584469783e-005</v>
       </c>
       <c r="F16">
-        <v>-4.2817759841286071e-006</v>
+        <v>-3.00182940983309e-005</v>
       </c>
       <c r="G16">
-        <v>0.00016892598039356291</v>
+        <v>0.00013107750960345387</v>
       </c>
       <c r="H16">
-        <v>-2.2619240744927165e-005</v>
+        <v>-0.0011626158942598574</v>
       </c>
       <c r="I16">
-        <v>8.9415776763869788e-005</v>
+        <v>7.6924384895660344e-005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.12708760154064669</v>
+        <v>0.0052710846184457613</v>
       </c>
       <c r="B17">
-        <v>0.00043071789736998925</v>
+        <v>5.9849409722593387e-006</v>
       </c>
       <c r="C17">
-        <v>-0.00015105520956384789</v>
+        <v>0.00020226257836044136</v>
       </c>
       <c r="D17">
-        <v>0.018444070365807974</v>
+        <v>9.9905598008972134e-005</v>
       </c>
       <c r="E17">
-        <v>0.00043217715427223139</v>
+        <v>-8.6816997534668868e-006</v>
       </c>
       <c r="F17">
-        <v>0.00076236278200678945</v>
+        <v>-4.8082286967491785e-006</v>
       </c>
       <c r="G17">
-        <v>-0.0044560082894498088</v>
+        <v>3.5756966379321619e-005</v>
       </c>
       <c r="H17">
-        <v>0.0023803176232853576</v>
+        <v>-0.00047741895488225938</v>
       </c>
       <c r="I17">
-        <v>-0.017313925856418246</v>
+        <v>7.9283000732832458e-006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.0093898112981572624</v>
+        <v>0.0088414833807077195</v>
       </c>
       <c r="B18">
-        <v>-2.6023261224810017e-005</v>
+        <v>7.3136355949670907e-007</v>
       </c>
       <c r="C18">
-        <v>-2.3169462979148671e-006</v>
+        <v>-3.4023172584469783e-005</v>
       </c>
       <c r="D18">
-        <v>0.00043217715427223139</v>
+        <v>-8.6816997534668868e-006</v>
       </c>
       <c r="E18">
-        <v>4.7261352104069277e-005</v>
+        <v>9.8901441299991938e-006</v>
       </c>
       <c r="F18">
-        <v>-4.9739950449169705e-005</v>
+        <v>-4.7680344457823682e-006</v>
       </c>
       <c r="G18">
-        <v>1.0602967610909196e-005</v>
+        <v>-1.5537034057365144e-005</v>
       </c>
       <c r="H18">
-        <v>5.2834220146652938e-005</v>
+        <v>0.00012588904792766242</v>
       </c>
       <c r="I18">
-        <v>-0.00043741897425892117</v>
+        <v>-3.0253838589112728e-005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.11675994340178231</v>
+        <v>0.0077578386409431254</v>
       </c>
       <c r="B19">
-        <v>3.387795745256086e-005</v>
+        <v>-1.1641730851456868e-005</v>
       </c>
       <c r="C19">
-        <v>-4.2817759841286071e-006</v>
+        <v>-3.00182940983309e-005</v>
       </c>
       <c r="D19">
-        <v>0.00076236278200678945</v>
+        <v>-4.8082286967491785e-006</v>
       </c>
       <c r="E19">
-        <v>-4.9739950449169705e-005</v>
+        <v>-4.7680344457823682e-006</v>
       </c>
       <c r="F19">
-        <v>0.0049351316441034639</v>
+        <v>4.8053256886437437e-005</v>
       </c>
       <c r="G19">
-        <v>-0.00063450557376706614</v>
+        <v>-6.1631837223318593e-005</v>
       </c>
       <c r="H19">
-        <v>4.8618778537443756e-005</v>
+        <v>-1.4218290570415258e-005</v>
       </c>
       <c r="I19">
-        <v>-0.0046348396824785042</v>
+        <v>3.4487070788469125e-005</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.076735098388101275</v>
+        <v>-0.11160893783262635</v>
       </c>
       <c r="B20">
-        <v>-0.00059051127862410388</v>
+        <v>-4.9473320118803182e-005</v>
       </c>
       <c r="C20">
-        <v>0.00016892598039356291</v>
+        <v>0.00013107750960345387</v>
       </c>
       <c r="D20">
-        <v>-0.0044560082894498088</v>
+        <v>3.5756966379321619e-005</v>
       </c>
       <c r="E20">
-        <v>1.0602967610909196e-005</v>
+        <v>-1.5537034057365144e-005</v>
       </c>
       <c r="F20">
-        <v>-0.00063450557376706614</v>
+        <v>-6.1631837223318593e-005</v>
       </c>
       <c r="G20">
-        <v>0.0044196829541920633</v>
+        <v>0.0048833472662675693</v>
       </c>
       <c r="H20">
-        <v>-0.00062303295235850058</v>
+        <v>-0.001047605626146529</v>
       </c>
       <c r="I20">
-        <v>0.0034242893014380291</v>
+        <v>-0.0037527888504405786</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.014655224703064873</v>
+        <v>-0.080132646287914458</v>
       </c>
       <c r="B21">
-        <v>7.8805896475354456e-005</v>
+        <v>5.5087684978091164e-006</v>
       </c>
       <c r="C21">
-        <v>-2.2619240744927165e-005</v>
+        <v>-0.0011626158942598574</v>
       </c>
       <c r="D21">
-        <v>0.0023803176232853576</v>
+        <v>-0.00047741895488225938</v>
       </c>
       <c r="E21">
-        <v>5.2834220146652938e-005</v>
+        <v>0.00012588904792766242</v>
       </c>
       <c r="F21">
-        <v>4.8618778537443756e-005</v>
+        <v>-1.4218290570415258e-005</v>
       </c>
       <c r="G21">
-        <v>-0.00062303295235850058</v>
+        <v>-0.001047605626146529</v>
       </c>
       <c r="H21">
-        <v>0.0003268462788597389</v>
+        <v>0.0046127204974868059</v>
       </c>
       <c r="I21">
-        <v>-0.0022533274487156569</v>
+        <v>-0.00011208073711532842</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>7.2486432299648085</v>
+        <v>7.3560063704429988</v>
       </c>
       <c r="B22">
-        <v>-0.0002031336521589943</v>
+        <v>-7.2169992113657334e-005</v>
       </c>
       <c r="C22">
-        <v>8.9415776763869788e-005</v>
+        <v>7.6924384895660344e-005</v>
       </c>
       <c r="D22">
-        <v>-0.017313925856418246</v>
+        <v>7.9283000732832458e-006</v>
       </c>
       <c r="E22">
-        <v>-0.00043741897425892117</v>
+        <v>-3.0253838589112728e-005</v>
       </c>
       <c r="F22">
-        <v>-0.0046348396824785042</v>
+        <v>3.4487070788469125e-005</v>
       </c>
       <c r="G22">
-        <v>0.0034242893014380291</v>
+        <v>-0.0037527888504405786</v>
       </c>
       <c r="H22">
-        <v>-0.0022533274487156569</v>
+        <v>-0.00011208073711532842</v>
       </c>
       <c r="I22">
-        <v>0.020244089128042052</v>
+        <v>0.0037363798117428385</v>
       </c>
     </row>
     <row r="30">
@@ -535,36 +535,46 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>2.2196859815723711</v>
+        <v>1.2858145972684929</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.57563172500127946</v>
+        <v>1.794392523364486</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2.219686008115064</v>
+        <v>2.2196859815723711</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.4134460416370046</v>
+        <v>0.57563172500127946</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.36102656564701391</v>
+        <v>2.219686008115064</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.648255297265703</v>
+        <v>0.4134460416370046</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>0.36102656564701391</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1.648255297265703</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
         <v>1.6306040875470069</v>
       </c>
     </row>
@@ -579,24 +589,27 @@
         <v>-0.60114768720502176</v>
       </c>
       <c r="D45">
+        <v>0.96714995276804927</v>
+      </c>
+      <c r="E45">
         <v>-0.047088213309010009</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>-0.029571832740422493</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.26292657868862473</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.018516489551160337</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.014267829485515625</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.38347630382384457</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.4621117871340597</v>
       </c>
     </row>
@@ -611,24 +624,27 @@
         <v>0.01894978089909698</v>
       </c>
       <c r="D46">
+        <v>-0.031237346641793517</v>
+      </c>
+      <c r="E46">
         <v>-0.13422925922615966</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.044559361867607464</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>-0.2190453625933344</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>-0.0065069758263170503</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.0057040816679996675</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>-0.19928795563796325</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-0.18011321044761688</v>
       </c>
     </row>
@@ -643,248 +659,307 @@
         <v>1.1862899202403647</v>
       </c>
       <c r="D47">
+        <v>-1.0594527381574883</v>
+      </c>
+      <c r="E47">
         <v>-0.89238279743738869</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.090852006449040026</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>-0.39598026972325179</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.0052373045578224505</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>-0.014022648327958029</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>-0.56075893461095194</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-0.62235838839571678</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.047088213309010009</v>
+        <v>0.96714995276804927</v>
       </c>
       <c r="B48">
-        <v>-0.13422925922615966</v>
+        <v>-0.031237346641793517</v>
       </c>
       <c r="C48">
-        <v>-0.89238279743738869</v>
+        <v>-1.0594527381574883</v>
       </c>
       <c r="D48">
-        <v>13.706704328405962</v>
+        <v>3.362608189482585</v>
       </c>
       <c r="E48">
-        <v>-0.49141666618856006</v>
+        <v>1.0910594224383379</v>
       </c>
       <c r="F48">
-        <v>6.4636276249620188</v>
+        <v>-0.16455203174444921</v>
       </c>
       <c r="G48">
-        <v>0.056644882914663658</v>
+        <v>1.1631982576446045</v>
       </c>
       <c r="H48">
-        <v>-0.069383256540818589</v>
+        <v>-0.06325474214014816</v>
       </c>
       <c r="I48">
-        <v>0.38107048146940636</v>
+        <v>-0.034460351321877018</v>
       </c>
       <c r="J48">
-        <v>0.96281854603404415</v>
+        <v>0.90815982524244365</v>
+      </c>
+      <c r="K48">
+        <v>0.78477534127417958</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.029571832740422493</v>
+        <v>-0.047088213309010009</v>
       </c>
       <c r="B49">
-        <v>0.044559361867607464</v>
+        <v>-0.13422925922615966</v>
       </c>
       <c r="C49">
-        <v>0.090852006449040026</v>
+        <v>-0.89238279743738869</v>
       </c>
       <c r="D49">
+        <v>1.0910594224383379</v>
+      </c>
+      <c r="E49">
+        <v>13.706704328405962</v>
+      </c>
+      <c r="F49">
         <v>-0.49141666618856006</v>
       </c>
-      <c r="E49">
-        <v>0.10505916827070187</v>
-      </c>
-      <c r="F49">
-        <v>-0.49141667638471287</v>
-      </c>
       <c r="G49">
-        <v>0.0060984162640137863</v>
+        <v>6.4636276249620188</v>
       </c>
       <c r="H49">
-        <v>0.014641095664503367</v>
+        <v>0.056644882914663658</v>
       </c>
       <c r="I49">
-        <v>-0.22482708246037891</v>
+        <v>-0.069383256540818589</v>
       </c>
       <c r="J49">
-        <v>-0.20232403902870896</v>
+        <v>0.38107048146940636</v>
+      </c>
+      <c r="K49">
+        <v>0.96281854603404415</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.26292657868862473</v>
+        <v>-0.029571832740422493</v>
       </c>
       <c r="B50">
-        <v>-0.2190453625933344</v>
+        <v>0.044559361867607464</v>
       </c>
       <c r="C50">
-        <v>-0.39598026972325179</v>
+        <v>0.090852006449040026</v>
       </c>
       <c r="D50">
-        <v>6.4636276249620188</v>
+        <v>-0.16455203174444921</v>
       </c>
       <c r="E50">
+        <v>-0.49141666618856006</v>
+      </c>
+      <c r="F50">
+        <v>0.10505916827070187</v>
+      </c>
+      <c r="G50">
         <v>-0.49141667638471287</v>
       </c>
-      <c r="F50">
-        <v>6.4636277126607578</v>
-      </c>
-      <c r="G50">
-        <v>-0.01130386177737585</v>
-      </c>
       <c r="H50">
-        <v>-0.063908821244557462</v>
+        <v>0.0060984162640137863</v>
       </c>
       <c r="I50">
-        <v>0.86698728485278898</v>
+        <v>0.014641095664503367</v>
       </c>
       <c r="J50">
-        <v>1.1240718550785109</v>
+        <v>-0.22482708246037891</v>
+      </c>
+      <c r="K50">
+        <v>-0.20232403902870896</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.018516489551160337</v>
+        <v>0.26292657868862473</v>
       </c>
       <c r="B51">
-        <v>-0.0065069758263170503</v>
+        <v>-0.2190453625933344</v>
       </c>
       <c r="C51">
-        <v>0.0052373045578224505</v>
+        <v>-0.39598026972325179</v>
       </c>
       <c r="D51">
-        <v>0.056644882914663658</v>
+        <v>1.1631982576446045</v>
       </c>
       <c r="E51">
-        <v>0.0060984162640137863</v>
+        <v>6.4636276249620188</v>
       </c>
       <c r="F51">
+        <v>-0.49141667638471287</v>
+      </c>
+      <c r="G51">
+        <v>6.4636277126607578</v>
+      </c>
+      <c r="H51">
         <v>-0.01130386177737585</v>
       </c>
-      <c r="G51">
-        <v>0.19721298049402619</v>
-      </c>
-      <c r="H51">
-        <v>0.098650872858325689</v>
-      </c>
       <c r="I51">
-        <v>0.14588657535239866</v>
+        <v>-0.063908821244557462</v>
       </c>
       <c r="J51">
-        <v>0.25520926581775455</v>
+        <v>0.86698728485278898</v>
+      </c>
+      <c r="K51">
+        <v>1.1240718550785109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.014267829485515625</v>
+        <v>0.018516489551160337</v>
       </c>
       <c r="B52">
-        <v>0.0057040816679996675</v>
+        <v>-0.0065069758263170503</v>
       </c>
       <c r="C52">
-        <v>-0.014022648327958029</v>
+        <v>0.0052373045578224505</v>
       </c>
       <c r="D52">
-        <v>-0.069383256540818589</v>
+        <v>-0.06325474214014816</v>
       </c>
       <c r="E52">
-        <v>0.014641095664503367</v>
+        <v>0.056644882914663658</v>
       </c>
       <c r="F52">
-        <v>-0.063908821244557462</v>
+        <v>0.0060984162640137863</v>
       </c>
       <c r="G52">
+        <v>-0.01130386177737585</v>
+      </c>
+      <c r="H52">
+        <v>0.19721298049402619</v>
+      </c>
+      <c r="I52">
         <v>0.098650872858325689</v>
       </c>
-      <c r="H52">
-        <v>0.11480180864522807</v>
-      </c>
-      <c r="I52">
-        <v>0.021627899564595158</v>
-      </c>
       <c r="J52">
-        <v>0.052693543419477476</v>
+        <v>0.14588657535239866</v>
+      </c>
+      <c r="K52">
+        <v>0.25520926581775455</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.38347630382384457</v>
+        <v>0.014267829485515625</v>
       </c>
       <c r="B53">
-        <v>-0.19928795563796325</v>
+        <v>0.0057040816679996675</v>
       </c>
       <c r="C53">
-        <v>-0.56075893461095194</v>
+        <v>-0.014022648327958029</v>
       </c>
       <c r="D53">
-        <v>0.38107048146940636</v>
+        <v>-0.034460351321877018</v>
       </c>
       <c r="E53">
-        <v>-0.22482708246037891</v>
+        <v>-0.069383256540818589</v>
       </c>
       <c r="F53">
-        <v>0.86698728485278898</v>
+        <v>0.014641095664503367</v>
       </c>
       <c r="G53">
-        <v>0.14588657535239866</v>
+        <v>-0.063908821244557462</v>
       </c>
       <c r="H53">
+        <v>0.098650872858325689</v>
+      </c>
+      <c r="I53">
+        <v>0.11480180864522807</v>
+      </c>
+      <c r="J53">
         <v>0.021627899564595158</v>
       </c>
-      <c r="I53">
-        <v>6.6773223752373783</v>
-      </c>
-      <c r="J53">
-        <v>3.5940569706947598</v>
+      <c r="K53">
+        <v>0.052693543419477476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <v>0.38347630382384457</v>
+      </c>
+      <c r="B54">
+        <v>-0.19928795563796325</v>
+      </c>
+      <c r="C54">
+        <v>-0.56075893461095194</v>
+      </c>
+      <c r="D54">
+        <v>0.90815982524244365</v>
+      </c>
+      <c r="E54">
+        <v>0.38107048146940636</v>
+      </c>
+      <c r="F54">
+        <v>-0.22482708246037891</v>
+      </c>
+      <c r="G54">
+        <v>0.86698728485278898</v>
+      </c>
+      <c r="H54">
+        <v>0.14588657535239866</v>
+      </c>
+      <c r="I54">
+        <v>0.021627899564595158</v>
+      </c>
+      <c r="J54">
+        <v>6.6773223752373783</v>
+      </c>
+      <c r="K54">
+        <v>3.5940569706947598</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
         <v>0.4621117871340597</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>-0.18011321044761688</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>-0.62235838839571678</v>
       </c>
-      <c r="D54">
+      <c r="D55">
+        <v>0.78477534127417958</v>
+      </c>
+      <c r="E55">
         <v>0.96281854603404415</v>
       </c>
-      <c r="E54">
+      <c r="F55">
         <v>-0.20232403902870896</v>
       </c>
-      <c r="F54">
+      <c r="G55">
         <v>1.1240718550785109</v>
       </c>
-      <c r="G54">
+      <c r="H55">
         <v>0.25520926581775455</v>
       </c>
-      <c r="H54">
+      <c r="I55">
         <v>0.052693543419477476</v>
       </c>
-      <c r="I54">
+      <c r="J55">
         <v>3.5940569706947598</v>
       </c>
-      <c r="J54">
+      <c r="K55">
         <v>3.8060610048999397</v>
       </c>
     </row>

--- a/simom2.xlsx
+++ b/simom2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -50,482 +50,385 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.01356340666349224</v>
+        <v>0.013660892655022126</v>
       </c>
       <c r="B1">
-        <v>4.1960935477966383e-005</v>
+        <v>4.1627654254311555e-05</v>
       </c>
       <c r="C1">
-        <v>2.088760237005406e-005</v>
+        <v>2.2263089534146404e-05</v>
       </c>
       <c r="D1">
-        <v>2.3509931134958754e-007</v>
+        <v>-2.8786045153588173e-07</v>
       </c>
       <c r="E1">
-        <v>-6.5654914877172173e-007</v>
+        <v>-2.4616255002042285e-05</v>
       </c>
       <c r="F1">
-        <v>-2.4635590763506918e-005</v>
+        <v>5.0763199093737402e-05</v>
       </c>
       <c r="G1">
-        <v>4.972291654309356e-005</v>
+        <v>-0.00010058606784251836</v>
       </c>
       <c r="H1">
-        <v>-0.00010243591249599638</v>
-      </c>
-      <c r="I1">
-        <v>-0.0001692810616743886</v>
+        <v>-0.00016914793231131777</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.96289389027008054</v>
+        <v>-0.97374392598642356</v>
       </c>
       <c r="B2">
-        <v>2.088760237005406e-005</v>
+        <v>2.2263089534146404e-05</v>
       </c>
       <c r="C2">
-        <v>0.00049289056415217046</v>
+        <v>0.0002574524417674679</v>
       </c>
       <c r="D2">
-        <v>0.00013889941393869295</v>
+        <v>4.5480133114383677e-05</v>
       </c>
       <c r="E2">
-        <v>6.9396606793642132e-005</v>
+        <v>-6.1188069577232648e-06</v>
       </c>
       <c r="F2">
-        <v>3.8682734998270502e-006</v>
+        <v>2.9477064737998746e-06</v>
       </c>
       <c r="G2">
-        <v>0.00014382619392016891</v>
+        <v>0.00049801650100525833</v>
       </c>
       <c r="H2">
-        <v>0.00082498544610418666</v>
-      </c>
-      <c r="I2">
-        <v>-0.00059245122889049827</v>
+        <v>-0.00022631307196828933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0089158041482682044</v>
+        <v>-0.10773237757457171</v>
       </c>
       <c r="B3">
-        <v>2.3509931134958754e-007</v>
+        <v>-2.8786045153588173e-07</v>
       </c>
       <c r="C3">
-        <v>0.00013889941393869295</v>
+        <v>4.5480133114383677e-05</v>
       </c>
       <c r="D3">
-        <v>6.8480985185323426e-005</v>
+        <v>6.8044633690044585e-05</v>
       </c>
       <c r="E3">
-        <v>1.5994486752560489e-005</v>
+        <v>-2.249934086992265e-05</v>
       </c>
       <c r="F3">
-        <v>3.9878189351236837e-006</v>
+        <v>-6.9318396976308125e-05</v>
       </c>
       <c r="G3">
-        <v>7.2350555833085135e-005</v>
+        <v>0.00016013925054937355</v>
       </c>
       <c r="H3">
-        <v>0.0002759679656110274</v>
-      </c>
-      <c r="I3">
-        <v>-0.00021307247355538308</v>
+        <v>-6.8212081136828406e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.10694441748651298</v>
+        <v>-0.03978126911862858</v>
       </c>
       <c r="B4">
-        <v>-6.5654914877172173e-007</v>
+        <v>-2.4616255002042285e-05</v>
       </c>
       <c r="C4">
-        <v>6.9396606793642132e-005</v>
+        <v>-6.1188069577232648e-06</v>
       </c>
       <c r="D4">
-        <v>1.5994486752560489e-005</v>
+        <v>-2.249934086992265e-05</v>
       </c>
       <c r="E4">
-        <v>7.0339078537103868e-005</v>
+        <v>6.1115443702310272e-05</v>
       </c>
       <c r="F4">
-        <v>-2.11785987200192e-005</v>
+        <v>-7.7163197088332369e-05</v>
       </c>
       <c r="G4">
-        <v>-5.6000846783458632e-005</v>
+        <v>3.8114937350205546e-05</v>
       </c>
       <c r="H4">
-        <v>0.00018392748657497144</v>
-      </c>
-      <c r="I4">
-        <v>-0.00010403385877232216</v>
+        <v>0.00011579858266104425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.039013510318961789</v>
+        <v>-0.065341246245156401</v>
       </c>
       <c r="B5">
-        <v>-2.4635590763506918e-005</v>
+        <v>5.0763199093737402e-05</v>
       </c>
       <c r="C5">
-        <v>3.8682734998270502e-006</v>
+        <v>2.9477064737998746e-06</v>
       </c>
       <c r="D5">
-        <v>3.9878189351236837e-006</v>
+        <v>-6.9318396976308125e-05</v>
       </c>
       <c r="E5">
-        <v>-2.11785987200192e-005</v>
+        <v>-7.7163197088332369e-05</v>
       </c>
       <c r="F5">
-        <v>6.1269312339281594e-005</v>
+        <v>0.0035580406296703833</v>
       </c>
       <c r="G5">
-        <v>-6.9194121139362269e-005</v>
+        <v>-0.00057316908440634921</v>
       </c>
       <c r="H5">
-        <v>6.2455134572257659e-005</v>
-      </c>
-      <c r="I5">
-        <v>9.8256231996988449e-005</v>
+        <v>-0.0029976835377484327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.057553417128315652</v>
+        <v>0.16401009292136012</v>
       </c>
       <c r="B6">
-        <v>4.972291654309356e-005</v>
+        <v>-0.00010058606784251836</v>
       </c>
       <c r="C6">
-        <v>0.00014382619392016891</v>
+        <v>0.00049801650100525833</v>
       </c>
       <c r="D6">
-        <v>7.2350555833085135e-005</v>
+        <v>0.00016013925054937355</v>
       </c>
       <c r="E6">
-        <v>-5.6000846783458632e-005</v>
+        <v>3.8114937350205546e-05</v>
       </c>
       <c r="F6">
-        <v>-6.9194121139362269e-005</v>
+        <v>-0.00057316908440634921</v>
       </c>
       <c r="G6">
-        <v>0.003592414500724389</v>
+        <v>0.0056943447885192565</v>
       </c>
       <c r="H6">
-        <v>-0.00032341198202098039</v>
-      </c>
-      <c r="I6">
-        <v>-0.0031705960756197651</v>
+        <v>-0.00052744981352333662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.16086638096774897</v>
+        <v>7.1537647041340886</v>
       </c>
       <c r="B7">
-        <v>-0.00010243591249599638</v>
+        <v>-0.00016914793231131777</v>
       </c>
       <c r="C7">
-        <v>0.00082498544610418666</v>
+        <v>-0.00022631307196828933</v>
       </c>
       <c r="D7">
-        <v>0.0002759679656110274</v>
+        <v>-6.8212081136828406e-05</v>
       </c>
       <c r="E7">
-        <v>0.00018392748657497144</v>
+        <v>0.00011579858266104425</v>
       </c>
       <c r="F7">
-        <v>6.2455134572257659e-005</v>
+        <v>-0.0029976835377484327</v>
       </c>
       <c r="G7">
-        <v>-0.00032341198202098039</v>
+        <v>-0.00052744981352333662</v>
       </c>
       <c r="H7">
-        <v>0.0054380442754406334</v>
-      </c>
-      <c r="I7">
-        <v>-0.0010331688338023597</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7.1368091924770605</v>
-      </c>
-      <c r="B8">
-        <v>-0.0001692810616743886</v>
-      </c>
-      <c r="C8">
-        <v>-0.00059245122889049827</v>
-      </c>
-      <c r="D8">
-        <v>-0.00021307247355538308</v>
-      </c>
-      <c r="E8">
-        <v>-0.00010403385877232216</v>
-      </c>
-      <c r="F8">
-        <v>9.8256231996988449e-005</v>
-      </c>
-      <c r="G8">
-        <v>-0.0031705960756197651</v>
-      </c>
-      <c r="H8">
-        <v>-0.0010331688338023597</v>
-      </c>
-      <c r="I8">
-        <v>0.0040022059754357894</v>
+        <v>0.0034670419558486356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.00072075139196818507</v>
+        <v>-0.00058044560789761394</v>
       </c>
       <c r="B15">
-        <v>2.8518697873958275e-005</v>
+        <v>2.8822290116553651e-05</v>
       </c>
       <c r="C15">
-        <v>2.7859731756565981e-005</v>
+        <v>2.1744725365190006e-05</v>
       </c>
       <c r="D15">
-        <v>5.9849409722593387e-006</v>
+        <v>-8.4838969402238638e-08</v>
       </c>
       <c r="E15">
-        <v>7.3136355949670907e-007</v>
+        <v>-1.2291530186702865e-05</v>
       </c>
       <c r="F15">
-        <v>-1.1641730851456868e-005</v>
+        <v>-5.2389349155154377e-05</v>
       </c>
       <c r="G15">
-        <v>-4.9473320118803182e-005</v>
+        <v>-1.4098045843362799e-06</v>
       </c>
       <c r="H15">
-        <v>5.5087684978091164e-006</v>
-      </c>
-      <c r="I15">
-        <v>-7.2169992113657334e-005</v>
+        <v>-6.0751589207507466e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.03922431545249605</v>
+        <v>-0.045608188385079435</v>
       </c>
       <c r="B16">
-        <v>2.7859731756565981e-005</v>
+        <v>2.1744725365190006e-05</v>
       </c>
       <c r="C16">
-        <v>0.00063735751947476254</v>
+        <v>0.00029342576261527295</v>
       </c>
       <c r="D16">
-        <v>0.00020226257836044136</v>
+        <v>-3.0718956014004045e-05</v>
       </c>
       <c r="E16">
-        <v>-3.4023172584469783e-005</v>
+        <v>-3.0810543943831212e-05</v>
       </c>
       <c r="F16">
-        <v>-3.00182940983309e-005</v>
+        <v>2.3684938622889972e-05</v>
       </c>
       <c r="G16">
-        <v>0.00013107750960345387</v>
+        <v>-0.00055604188893087852</v>
       </c>
       <c r="H16">
-        <v>-0.0011626158942598574</v>
-      </c>
-      <c r="I16">
-        <v>7.6924384895660344e-005</v>
+        <v>0.00021396514245573364</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.0052710846184457613</v>
+        <v>0.0083790404248370361</v>
       </c>
       <c r="B17">
-        <v>5.9849409722593387e-006</v>
+        <v>-8.4838969402238638e-08</v>
       </c>
       <c r="C17">
-        <v>0.00020226257836044136</v>
+        <v>-3.0718956014004045e-05</v>
       </c>
       <c r="D17">
-        <v>9.9905598008972134e-005</v>
+        <v>1.2319103343236473e-05</v>
       </c>
       <c r="E17">
-        <v>-8.6816997534668868e-006</v>
+        <v>-2.9008849342193017e-06</v>
       </c>
       <c r="F17">
-        <v>-4.8082286967491785e-006</v>
+        <v>-2.0914563619548837e-06</v>
       </c>
       <c r="G17">
-        <v>3.5756966379321619e-005</v>
+        <v>0.0001614706628723119</v>
       </c>
       <c r="H17">
-        <v>-0.00047741895488225938</v>
-      </c>
-      <c r="I17">
-        <v>7.9283000732832458e-006</v>
+        <v>-6.5050653288803868e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.0088414833807077195</v>
+        <v>0.0072440635512243026</v>
       </c>
       <c r="B18">
-        <v>7.3136355949670907e-007</v>
+        <v>-1.2291530186702865e-05</v>
       </c>
       <c r="C18">
-        <v>-3.4023172584469783e-005</v>
+        <v>-3.0810543943831212e-05</v>
       </c>
       <c r="D18">
-        <v>-8.6816997534668868e-006</v>
+        <v>-2.9008849342193017e-06</v>
       </c>
       <c r="E18">
-        <v>9.8901441299991938e-006</v>
+        <v>4.9550151355031445e-05</v>
       </c>
       <c r="F18">
-        <v>-4.7680344457823682e-006</v>
+        <v>-5.7515954693832792e-05</v>
       </c>
       <c r="G18">
-        <v>-1.5537034057365144e-005</v>
+        <v>2.527331778005683e-05</v>
       </c>
       <c r="H18">
-        <v>0.00012588904792766242</v>
-      </c>
-      <c r="I18">
-        <v>-3.0253838589112728e-005</v>
+        <v>1.1963921681765791e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.0077578386409431254</v>
+        <v>-0.1162044270938018</v>
       </c>
       <c r="B19">
-        <v>-1.1641730851456868e-005</v>
+        <v>-5.2389349155154377e-05</v>
       </c>
       <c r="C19">
-        <v>-3.00182940983309e-005</v>
+        <v>2.3684938622889972e-05</v>
       </c>
       <c r="D19">
-        <v>-4.8082286967491785e-006</v>
+        <v>-2.0914563619548837e-06</v>
       </c>
       <c r="E19">
-        <v>-4.7680344457823682e-006</v>
+        <v>-5.7515954693832792e-05</v>
       </c>
       <c r="F19">
-        <v>4.8053256886437437e-005</v>
+        <v>0.0049116276015139767</v>
       </c>
       <c r="G19">
-        <v>-6.1631837223318593e-005</v>
+        <v>-0.00065003684815378147</v>
       </c>
       <c r="H19">
-        <v>-1.4218290570415258e-005</v>
-      </c>
-      <c r="I19">
-        <v>3.4487070788469125e-005</v>
+        <v>-0.0038767188822176118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.11160893783262635</v>
+        <v>-0.07837469427644729</v>
       </c>
       <c r="B20">
-        <v>-4.9473320118803182e-005</v>
+        <v>-1.4098045843362799e-06</v>
       </c>
       <c r="C20">
-        <v>0.00013107750960345387</v>
+        <v>-0.00055604188893087852</v>
       </c>
       <c r="D20">
-        <v>3.5756966379321619e-005</v>
+        <v>0.0001614706628723119</v>
       </c>
       <c r="E20">
-        <v>-1.5537034057365144e-005</v>
+        <v>2.527331778005683e-05</v>
       </c>
       <c r="F20">
-        <v>-6.1631837223318593e-005</v>
+        <v>-0.00065003684815378147</v>
       </c>
       <c r="G20">
-        <v>0.0048833472662675693</v>
+        <v>0.0043159121193510463</v>
       </c>
       <c r="H20">
-        <v>-0.001047605626146529</v>
-      </c>
-      <c r="I20">
-        <v>-0.0037527888504405786</v>
+        <v>-0.0009406855319968407</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.080132646287914458</v>
+        <v>7.3657617007227474</v>
       </c>
       <c r="B21">
-        <v>5.5087684978091164e-006</v>
+        <v>-6.0751589207507466e-05</v>
       </c>
       <c r="C21">
-        <v>-0.0011626158942598574</v>
+        <v>0.00021396514245573364</v>
       </c>
       <c r="D21">
-        <v>-0.00047741895488225938</v>
+        <v>-6.5050653288803868e-05</v>
       </c>
       <c r="E21">
-        <v>0.00012588904792766242</v>
+        <v>1.1963921681765791e-05</v>
       </c>
       <c r="F21">
-        <v>-1.4218290570415258e-005</v>
+        <v>-0.0038767188822176118</v>
       </c>
       <c r="G21">
-        <v>-0.001047605626146529</v>
+        <v>-0.0009406855319968407</v>
       </c>
       <c r="H21">
-        <v>0.0046127204974868059</v>
-      </c>
-      <c r="I21">
-        <v>-0.00011208073711532842</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>7.3560063704429988</v>
-      </c>
-      <c r="B22">
-        <v>-7.2169992113657334e-005</v>
-      </c>
-      <c r="C22">
-        <v>7.6924384895660344e-005</v>
-      </c>
-      <c r="D22">
-        <v>7.9283000732832458e-006</v>
-      </c>
-      <c r="E22">
-        <v>-3.0253838589112728e-005</v>
-      </c>
-      <c r="F22">
-        <v>3.4487070788469125e-005</v>
-      </c>
-      <c r="G22">
-        <v>-0.0037527888504405786</v>
-      </c>
-      <c r="H22">
-        <v>-0.00011208073711532842</v>
-      </c>
-      <c r="I22">
-        <v>0.0037363798117428385</v>
+        <v>0.0041459223088988594</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>7.1939051325076093</v>
+        <v>7.2881013391173894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>7.2881013391173894</v>
+        <v>7.1939051325076093</v>
       </c>
     </row>
     <row r="32">
@@ -535,7 +438,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1.2858145972684929</v>
+        <v>2.2196859815723711</v>
       </c>
     </row>
     <row r="34">
@@ -545,32 +448,32 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>2.2196859815723711</v>
+        <v>0.89252336448598135</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.57563172500127946</v>
+        <v>0.21962616822429909</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2.219686008115064</v>
+        <v>0.41344604163700449</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.4134460416370046</v>
+        <v>0.36102656564701391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.36102656564701391</v>
+        <v>1.648255297265703</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.648255297265703</v>
+        <v>0.41344604208786911</v>
       </c>
     </row>
     <row r="41">
@@ -580,37 +483,40 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>1.0600856523745397</v>
+        <v>0.19317609577300904</v>
       </c>
       <c r="B45">
         <v>0.020283109262192803</v>
       </c>
       <c r="C45">
-        <v>-0.60114768720502176</v>
+        <v>0.01894978089909698</v>
       </c>
       <c r="D45">
-        <v>0.96714995276804927</v>
+        <v>-0.13422925922615966</v>
       </c>
       <c r="E45">
-        <v>-0.047088213309010009</v>
+        <v>-0.051494683591961188</v>
       </c>
       <c r="F45">
-        <v>-0.029571832740422493</v>
+        <v>-0.024873194288232574</v>
       </c>
       <c r="G45">
-        <v>0.26292657868862473</v>
+        <v>-0.019729292304758561</v>
       </c>
       <c r="H45">
-        <v>0.018516489551160337</v>
+        <v>-0.0065069758263170503</v>
       </c>
       <c r="I45">
-        <v>0.014267829485515625</v>
+        <v>0.0057040816679996675</v>
       </c>
       <c r="J45">
-        <v>0.38347630382384457</v>
+        <v>-0.19928795563796325</v>
       </c>
       <c r="K45">
-        <v>0.4621117871340597</v>
+        <v>-0.0025959721116549503</v>
+      </c>
+      <c r="L45">
+        <v>-0.18011321044761688</v>
       </c>
     </row>
     <row r="46">
@@ -618,57 +524,60 @@
         <v>0.020283109262192803</v>
       </c>
       <c r="B46">
-        <v>0.19317609577300904</v>
+        <v>1.0600856523745397</v>
       </c>
       <c r="C46">
-        <v>0.01894978089909698</v>
+        <v>-0.60114768720502176</v>
       </c>
       <c r="D46">
-        <v>-0.031237346641793517</v>
+        <v>-0.047088213309010009</v>
       </c>
       <c r="E46">
-        <v>-0.13422925922615966</v>
+        <v>0.26453769402893745</v>
       </c>
       <c r="F46">
-        <v>0.044559361867607464</v>
+        <v>0.017374584279851172</v>
       </c>
       <c r="G46">
-        <v>-0.2190453625933344</v>
+        <v>0.086136511380711184</v>
       </c>
       <c r="H46">
-        <v>-0.0065069758263170503</v>
+        <v>0.018516489551160337</v>
       </c>
       <c r="I46">
-        <v>0.0057040816679996675</v>
+        <v>0.014267829485515625</v>
       </c>
       <c r="J46">
-        <v>-0.19928795563796325</v>
+        <v>0.38347630382384457</v>
       </c>
       <c r="K46">
-        <v>-0.18011321044761688</v>
+        <v>0.010815295777563233</v>
+      </c>
+      <c r="L46">
+        <v>0.4621117871340597</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>0.01894978089909698</v>
+      </c>
+      <c r="B47">
         <v>-0.60114768720502176</v>
-      </c>
-      <c r="B47">
-        <v>0.01894978089909698</v>
       </c>
       <c r="C47">
         <v>1.1862899202403647</v>
       </c>
       <c r="D47">
-        <v>-1.0594527381574883</v>
+        <v>-0.89238279743738869</v>
       </c>
       <c r="E47">
-        <v>-0.89238279743738869</v>
+        <v>-0.6152104873288391</v>
       </c>
       <c r="F47">
-        <v>0.090852006449040026</v>
+        <v>-0.010050390317526862</v>
       </c>
       <c r="G47">
-        <v>-0.39598026972325179</v>
+        <v>-0.068406597115928322</v>
       </c>
       <c r="H47">
         <v>0.0052373045578224505</v>
@@ -680,170 +589,185 @@
         <v>-0.56075893461095194</v>
       </c>
       <c r="K47">
+        <v>0.013247736962330958</v>
+      </c>
+      <c r="L47">
         <v>-0.62235838839571678</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.96714995276804927</v>
+        <v>-0.13422925922615966</v>
       </c>
       <c r="B48">
-        <v>-0.031237346641793517</v>
+        <v>-0.047088213309010009</v>
       </c>
       <c r="C48">
-        <v>-1.0594527381574883</v>
+        <v>-0.89238279743738869</v>
       </c>
       <c r="D48">
-        <v>3.362608189482585</v>
+        <v>13.706704328405962</v>
       </c>
       <c r="E48">
-        <v>1.0910594224383379</v>
+        <v>0.67854176873531002</v>
       </c>
       <c r="F48">
-        <v>-0.16455203174444921</v>
+        <v>0.058781097543792946</v>
       </c>
       <c r="G48">
-        <v>1.1631982576446045</v>
+        <v>0.10323169098097526</v>
       </c>
       <c r="H48">
-        <v>-0.06325474214014816</v>
+        <v>0.056644882914663658</v>
       </c>
       <c r="I48">
-        <v>-0.034460351321877018</v>
+        <v>-0.069383256540818589</v>
       </c>
       <c r="J48">
-        <v>0.90815982524244365</v>
+        <v>0.38107048146940636</v>
       </c>
       <c r="K48">
-        <v>0.78477534127417958</v>
+        <v>-0.011303857220249357</v>
+      </c>
+      <c r="L48">
+        <v>0.96281854603404415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.047088213309010009</v>
+        <v>-0.051494683591961188</v>
       </c>
       <c r="B49">
-        <v>-0.13422925922615966</v>
+        <v>0.26453769402893745</v>
       </c>
       <c r="C49">
-        <v>-0.89238279743738869</v>
+        <v>-0.6152104873288391</v>
       </c>
       <c r="D49">
-        <v>1.0910594224383379</v>
+        <v>0.67854176873531002</v>
       </c>
       <c r="E49">
-        <v>13.706704328405962</v>
+        <v>4.0727128145303517</v>
       </c>
       <c r="F49">
-        <v>-0.49141666618856006</v>
+        <v>0.059705600922782029</v>
       </c>
       <c r="G49">
-        <v>6.4636276249620188</v>
+        <v>0.010114779812384237</v>
       </c>
       <c r="H49">
-        <v>0.056644882914663658</v>
+        <v>0.23593241739333756</v>
       </c>
       <c r="I49">
-        <v>-0.069383256540818589</v>
+        <v>0.30160171602705849</v>
       </c>
       <c r="J49">
-        <v>0.38107048146940636</v>
+        <v>1.693417315341107</v>
       </c>
       <c r="K49">
-        <v>0.96281854603404415</v>
+        <v>0.19189069899958194</v>
+      </c>
+      <c r="L49">
+        <v>1.2697194462543995</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.029571832740422493</v>
+        <v>-0.024873194288232574</v>
       </c>
       <c r="B50">
-        <v>0.044559361867607464</v>
+        <v>0.017374584279851172</v>
       </c>
       <c r="C50">
-        <v>0.090852006449040026</v>
+        <v>-0.010050390317526862</v>
       </c>
       <c r="D50">
-        <v>-0.16455203174444921</v>
+        <v>0.058781097543792946</v>
       </c>
       <c r="E50">
-        <v>-0.49141666618856006</v>
+        <v>0.059705600922782029</v>
       </c>
       <c r="F50">
-        <v>0.10505916827070187</v>
+        <v>0.095970254245802855</v>
       </c>
       <c r="G50">
-        <v>-0.49141667638471287</v>
+        <v>0.011928012478536219</v>
       </c>
       <c r="H50">
-        <v>0.0060984162640137863</v>
+        <v>0.0010733336941578155</v>
       </c>
       <c r="I50">
-        <v>0.014641095664503367</v>
+        <v>-0.0046013420787474014</v>
       </c>
       <c r="J50">
-        <v>-0.22482708246037891</v>
+        <v>0.15355596984127567</v>
       </c>
       <c r="K50">
-        <v>-0.20232403902870896</v>
+        <v>0.001057467363778258</v>
+      </c>
+      <c r="L50">
+        <v>0.093469741302921849</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.26292657868862473</v>
+        <v>-0.019729292304758561</v>
       </c>
       <c r="B51">
-        <v>-0.2190453625933344</v>
+        <v>0.086136511380711184</v>
       </c>
       <c r="C51">
-        <v>-0.39598026972325179</v>
+        <v>-0.068406597115928322</v>
       </c>
       <c r="D51">
-        <v>1.1631982576446045</v>
+        <v>0.10323169098097526</v>
       </c>
       <c r="E51">
-        <v>6.4636276249620188</v>
+        <v>0.010114779812384237</v>
       </c>
       <c r="F51">
-        <v>-0.49141667638471287</v>
+        <v>0.011928012478536219</v>
       </c>
       <c r="G51">
-        <v>6.4636277126607578</v>
+        <v>0.17147064092312786</v>
       </c>
       <c r="H51">
-        <v>-0.01130386177737585</v>
+        <v>0.0016811864720253809</v>
       </c>
       <c r="I51">
-        <v>-0.063908821244557462</v>
+        <v>-0.0011831783671845848</v>
       </c>
       <c r="J51">
-        <v>0.86698728485278898</v>
+        <v>0.1431521883874583</v>
       </c>
       <c r="K51">
-        <v>1.1240718550785109</v>
+        <v>-0.00028412354480213521</v>
+      </c>
+      <c r="L51">
+        <v>0.13047613282909856</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>-0.0065069758263170503</v>
+      </c>
+      <c r="B52">
         <v>0.018516489551160337</v>
-      </c>
-      <c r="B52">
-        <v>-0.0065069758263170503</v>
       </c>
       <c r="C52">
         <v>0.0052373045578224505</v>
       </c>
       <c r="D52">
-        <v>-0.06325474214014816</v>
+        <v>0.056644882914663658</v>
       </c>
       <c r="E52">
-        <v>0.056644882914663658</v>
+        <v>0.23593241739333756</v>
       </c>
       <c r="F52">
-        <v>0.0060984162640137863</v>
+        <v>0.0010733336941578155</v>
       </c>
       <c r="G52">
-        <v>-0.01130386177737585</v>
+        <v>0.0016811864720253809</v>
       </c>
       <c r="H52">
         <v>0.19721298049402619</v>
@@ -855,30 +779,33 @@
         <v>0.14588657535239866</v>
       </c>
       <c r="K52">
+        <v>0.10894418091814</v>
+      </c>
+      <c r="L52">
         <v>0.25520926581775455</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>0.0057040816679996675</v>
+      </c>
+      <c r="B53">
         <v>0.014267829485515625</v>
-      </c>
-      <c r="B53">
-        <v>0.0057040816679996675</v>
       </c>
       <c r="C53">
         <v>-0.014022648327958029</v>
       </c>
       <c r="D53">
-        <v>-0.034460351321877018</v>
+        <v>-0.069383256540818589</v>
       </c>
       <c r="E53">
-        <v>-0.069383256540818589</v>
+        <v>0.30160171602705849</v>
       </c>
       <c r="F53">
-        <v>0.014641095664503367</v>
+        <v>-0.0046013420787474014</v>
       </c>
       <c r="G53">
-        <v>-0.063908821244557462</v>
+        <v>-0.0011831783671845848</v>
       </c>
       <c r="H53">
         <v>0.098650872858325689</v>
@@ -890,30 +817,33 @@
         <v>0.021627899564595158</v>
       </c>
       <c r="K53">
+        <v>0.070969329765763423</v>
+      </c>
+      <c r="L53">
         <v>0.052693543419477476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <v>-0.19928795563796325</v>
+      </c>
+      <c r="B54">
         <v>0.38347630382384457</v>
-      </c>
-      <c r="B54">
-        <v>-0.19928795563796325</v>
       </c>
       <c r="C54">
         <v>-0.56075893461095194</v>
       </c>
       <c r="D54">
-        <v>0.90815982524244365</v>
+        <v>0.38107048146940636</v>
       </c>
       <c r="E54">
-        <v>0.38107048146940636</v>
+        <v>1.693417315341107</v>
       </c>
       <c r="F54">
-        <v>-0.22482708246037891</v>
+        <v>0.15355596984127567</v>
       </c>
       <c r="G54">
-        <v>0.86698728485278898</v>
+        <v>0.1431521883874583</v>
       </c>
       <c r="H54">
         <v>0.14588657535239866</v>
@@ -925,41 +855,85 @@
         <v>6.6773223752373783</v>
       </c>
       <c r="K54">
+        <v>0.029112520416497402</v>
+      </c>
+      <c r="L54">
         <v>3.5940569706947598</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
+        <v>-0.0025959721116549503</v>
+      </c>
+      <c r="B55">
+        <v>0.010815295777563233</v>
+      </c>
+      <c r="C55">
+        <v>0.013247736962330958</v>
+      </c>
+      <c r="D55">
+        <v>-0.011303857220249357</v>
+      </c>
+      <c r="E55">
+        <v>0.19189069899958194</v>
+      </c>
+      <c r="F55">
+        <v>0.001057467363778258</v>
+      </c>
+      <c r="G55">
+        <v>-0.00028412354480213521</v>
+      </c>
+      <c r="H55">
+        <v>0.10894418091814</v>
+      </c>
+      <c r="I55">
+        <v>0.070969329765763423</v>
+      </c>
+      <c r="J55">
+        <v>0.029112520416497402</v>
+      </c>
+      <c r="K55">
+        <v>0.10894418094579496</v>
+      </c>
+      <c r="L55">
+        <v>0.12056671437038556</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>-0.18011321044761688</v>
+      </c>
+      <c r="B56">
         <v>0.4621117871340597</v>
       </c>
-      <c r="B55">
-        <v>-0.18011321044761688</v>
-      </c>
-      <c r="C55">
+      <c r="C56">
         <v>-0.62235838839571678</v>
       </c>
-      <c r="D55">
-        <v>0.78477534127417958</v>
-      </c>
-      <c r="E55">
+      <c r="D56">
         <v>0.96281854603404415</v>
       </c>
-      <c r="F55">
-        <v>-0.20232403902870896</v>
-      </c>
-      <c r="G55">
-        <v>1.1240718550785109</v>
-      </c>
-      <c r="H55">
+      <c r="E56">
+        <v>1.2697194462543995</v>
+      </c>
+      <c r="F56">
+        <v>0.093469741302921849</v>
+      </c>
+      <c r="G56">
+        <v>0.13047613282909856</v>
+      </c>
+      <c r="H56">
         <v>0.25520926581775455</v>
       </c>
-      <c r="I55">
+      <c r="I56">
         <v>0.052693543419477476</v>
       </c>
-      <c r="J55">
+      <c r="J56">
         <v>3.5940569706947598</v>
       </c>
-      <c r="K55">
+      <c r="K56">
+        <v>0.12056671437038556</v>
+      </c>
+      <c r="L56">
         <v>3.8060610048999397</v>
       </c>
     </row>
